--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F0ACF-CD74-47F3-87C0-5DAED5CDA97E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45794A47-EF5A-4E78-B68B-12C93B9BE989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3625,7 +3625,7 @@
         <v>135</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>4</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>4</v>
@@ -3659,7 +3659,7 @@
         <v>137</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>4</v>
@@ -3676,7 +3676,7 @@
         <v>138</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>4</v>
@@ -3693,7 +3693,7 @@
         <v>139</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>4</v>
@@ -3710,7 +3710,7 @@
         <v>140</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         <v>141</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>4</v>
@@ -3744,7 +3744,7 @@
         <v>142</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>4</v>
@@ -3761,7 +3761,7 @@
         <v>143</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>4</v>
@@ -3778,7 +3778,7 @@
         <v>144</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>4</v>
@@ -3795,7 +3795,7 @@
         <v>145</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>4</v>
@@ -3812,7 +3812,7 @@
         <v>146</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>4</v>

--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45794A47-EF5A-4E78-B68B-12C93B9BE989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E37A1-F098-4349-800B-62DC5DAF42C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3829,7 +3829,7 @@
         <v>147</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>4</v>
@@ -3846,7 +3846,7 @@
         <v>148</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>4</v>
@@ -3863,7 +3863,7 @@
         <v>149</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>4</v>
@@ -3880,7 +3880,7 @@
         <v>150</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>4</v>
@@ -3897,7 +3897,7 @@
         <v>151</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>4</v>
@@ -3914,7 +3914,7 @@
         <v>152</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>4</v>
@@ -3931,7 +3931,7 @@
         <v>153</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>4</v>
@@ -3948,7 +3948,7 @@
         <v>154</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>4</v>
@@ -4118,7 +4118,7 @@
         <v>164</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>4</v>
@@ -4186,7 +4186,7 @@
         <v>168</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>4</v>
@@ -4203,7 +4203,7 @@
         <v>169</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>4</v>
@@ -8121,7 +8121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="2:5" ht="21">
+    <row r="465" spans="1:5" ht="21">
       <c r="B465" s="5" t="s">
         <v>393</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="21">
+    <row r="466" spans="1:5" ht="21">
       <c r="B466" s="5" t="s">
         <v>393</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="2:5" ht="21">
+    <row r="467" spans="1:5" ht="21">
       <c r="B467" s="5" t="s">
         <v>393</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="2:5" ht="21">
+    <row r="468" spans="1:5" ht="21">
       <c r="B468" s="5" t="s">
         <v>393</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="2:5" ht="21">
+    <row r="469" spans="1:5" ht="21">
       <c r="B469" s="5" t="s">
         <v>393</v>
       </c>
@@ -8191,18 +8191,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="21">
+    <row r="470" spans="1:5" ht="21">
       <c r="C470" s="7"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="2:5" ht="21">
+    <row r="471" spans="1:5" ht="21">
       <c r="B471" s="8"/>
       <c r="C471" s="7"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="2:5" ht="21">
+    <row r="472" spans="1:5" ht="21">
+      <c r="A472">
+        <v>1</v>
+      </c>
       <c r="B472" s="5" t="s">
         <v>453</v>
       </c>
@@ -8210,13 +8213,16 @@
         <v>454</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="21">
+    <row r="473" spans="1:5" ht="21">
+      <c r="A473">
+        <v>2</v>
+      </c>
       <c r="B473" s="5" t="s">
         <v>453</v>
       </c>
@@ -8224,13 +8230,16 @@
         <v>455</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="2:5" ht="21">
+    <row r="474" spans="1:5" ht="21">
+      <c r="A474">
+        <v>3</v>
+      </c>
       <c r="B474" s="5" t="s">
         <v>453</v>
       </c>
@@ -8238,13 +8247,16 @@
         <v>456</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E474" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="21">
+    <row r="475" spans="1:5" ht="21">
+      <c r="A475">
+        <v>4</v>
+      </c>
       <c r="B475" s="5" t="s">
         <v>453</v>
       </c>
@@ -8252,13 +8264,16 @@
         <v>457</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="21">
+    <row r="476" spans="1:5" ht="21">
+      <c r="A476">
+        <v>5</v>
+      </c>
       <c r="B476" s="5" t="s">
         <v>453</v>
       </c>
@@ -8266,13 +8281,16 @@
         <v>458</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="21">
+    <row r="477" spans="1:5" ht="21">
+      <c r="A477">
+        <v>6</v>
+      </c>
       <c r="B477" s="5" t="s">
         <v>453</v>
       </c>
@@ -8280,13 +8298,16 @@
         <v>459</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E477" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="2:5" ht="21">
+    <row r="478" spans="1:5" ht="21">
+      <c r="A478">
+        <v>7</v>
+      </c>
       <c r="B478" s="5" t="s">
         <v>453</v>
       </c>
@@ -8294,13 +8315,16 @@
         <v>460</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="2:5" ht="21">
+    <row r="479" spans="1:5" ht="21">
+      <c r="A479">
+        <v>8</v>
+      </c>
       <c r="B479" s="5" t="s">
         <v>453</v>
       </c>
@@ -8314,7 +8338,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="21">
+    <row r="480" spans="1:5" ht="21">
+      <c r="A480">
+        <v>9</v>
+      </c>
       <c r="B480" s="5" t="s">
         <v>453</v>
       </c>
@@ -8322,13 +8349,16 @@
         <v>462</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="21">
+    <row r="481" spans="1:5" ht="21">
+      <c r="A481">
+        <v>10</v>
+      </c>
       <c r="B481" s="5" t="s">
         <v>453</v>
       </c>
@@ -8336,7 +8366,7 @@
         <v>463</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E481" s="4" t="s">
         <v>4</v>

--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E37A1-F098-4349-800B-62DC5DAF42C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC20227-358E-4018-99DE-105ECD1605CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>HEAP</t>
+  </si>
+  <si>
+    <t>GEOMETRY</t>
   </si>
 </sst>
 </file>
@@ -1883,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3071,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="21">
+    <row r="97" spans="1:5" ht="21">
       <c r="B97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="21">
+    <row r="98" spans="1:5" ht="21">
       <c r="B98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3099,13 +3102,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="21">
+    <row r="100" spans="1:5" ht="21">
       <c r="B100" s="8"/>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="2:5" ht="21">
+    <row r="101" spans="1:5" ht="21">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3113,13 +3119,16 @@
         <v>98</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="21">
+    <row r="102" spans="1:5" ht="21">
+      <c r="A102">
+        <v>2</v>
+      </c>
       <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3127,13 +3136,16 @@
         <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="21">
+    <row r="103" spans="1:5" ht="21">
+      <c r="A103">
+        <v>3</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3141,13 +3153,16 @@
         <v>100</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="21">
+    <row r="104" spans="1:5" ht="21">
+      <c r="A104">
+        <v>4</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3155,13 +3170,16 @@
         <v>101</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="21">
+    <row r="105" spans="1:5" ht="21">
+      <c r="A105">
+        <v>5</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3169,13 +3187,16 @@
         <v>102</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="21">
+    <row r="106" spans="1:5" ht="21">
+      <c r="A106">
+        <v>6</v>
+      </c>
       <c r="B106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3186,10 +3207,13 @@
         <v>4</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="21">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="21">
+      <c r="A107">
+        <v>7</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3197,13 +3221,16 @@
         <v>104</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="21">
+    <row r="108" spans="1:5" ht="21">
+      <c r="A108">
+        <v>8</v>
+      </c>
       <c r="B108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3211,13 +3238,16 @@
         <v>105</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="21">
+    <row r="109" spans="1:5" ht="21">
+      <c r="A109">
+        <v>9</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3225,13 +3255,16 @@
         <v>106</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="21">
+    <row r="110" spans="1:5" ht="21">
+      <c r="A110">
+        <v>10</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3239,13 +3272,16 @@
         <v>107</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="21">
+    <row r="111" spans="1:5" ht="21">
+      <c r="A111">
+        <v>11</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3259,7 +3295,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="21">
+    <row r="112" spans="1:5" ht="21">
+      <c r="A112">
+        <v>12</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3273,7 +3312,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="21">
+    <row r="113" spans="1:5" ht="21">
+      <c r="A113">
+        <v>13</v>
+      </c>
       <c r="B113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3287,7 +3329,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="21">
+    <row r="114" spans="1:5" ht="21">
+      <c r="A114">
+        <v>14</v>
+      </c>
       <c r="B114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3301,7 +3346,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="21">
+    <row r="115" spans="1:5" ht="21">
+      <c r="A115">
+        <v>15</v>
+      </c>
       <c r="B115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3315,7 +3363,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="21">
+    <row r="116" spans="1:5" ht="21">
+      <c r="A116">
+        <v>16</v>
+      </c>
       <c r="B116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3329,7 +3380,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="21">
+    <row r="117" spans="1:5" ht="21">
+      <c r="A117">
+        <v>17</v>
+      </c>
       <c r="B117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3343,7 +3397,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="21">
+    <row r="118" spans="1:5" ht="21">
+      <c r="A118">
+        <v>18</v>
+      </c>
       <c r="B118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3357,7 +3414,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="21">
+    <row r="119" spans="1:5" ht="21">
+      <c r="A119">
+        <v>19</v>
+      </c>
       <c r="B119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3371,7 +3431,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="21">
+    <row r="120" spans="1:5" ht="21">
+      <c r="A120">
+        <v>20</v>
+      </c>
       <c r="B120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3385,7 +3448,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="21">
+    <row r="121" spans="1:5" ht="21">
+      <c r="A121">
+        <v>21</v>
+      </c>
       <c r="B121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3399,7 +3465,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="21">
+    <row r="122" spans="1:5" ht="21">
+      <c r="A122">
+        <v>22</v>
+      </c>
       <c r="B122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3413,7 +3482,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="21">
+    <row r="123" spans="1:5" ht="21">
+      <c r="A123">
+        <v>23</v>
+      </c>
       <c r="B123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3427,7 +3499,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="21">
+    <row r="124" spans="1:5" ht="21">
+      <c r="A124">
+        <v>24</v>
+      </c>
       <c r="B124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3441,7 +3516,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="21">
+    <row r="125" spans="1:5" ht="21">
+      <c r="A125">
+        <v>25</v>
+      </c>
       <c r="B125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3455,7 +3533,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="21">
+    <row r="126" spans="1:5" ht="21">
+      <c r="A126">
+        <v>26</v>
+      </c>
       <c r="B126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3469,7 +3550,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="21">
+    <row r="127" spans="1:5" ht="21">
+      <c r="A127">
+        <v>27</v>
+      </c>
       <c r="B127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3483,7 +3567,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="21">
+    <row r="128" spans="1:5" ht="21">
+      <c r="A128">
+        <v>28</v>
+      </c>
       <c r="B128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3498,6 +3585,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="21">
+      <c r="A129">
+        <v>29</v>
+      </c>
       <c r="B129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3512,6 +3602,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="21">
+      <c r="A130">
+        <v>30</v>
+      </c>
       <c r="B130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3526,6 +3619,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="21">
+      <c r="A131">
+        <v>31</v>
+      </c>
       <c r="B131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3540,6 +3636,9 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="21">
+      <c r="A132">
+        <v>32</v>
+      </c>
       <c r="B132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3554,6 +3653,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="21">
+      <c r="A133">
+        <v>33</v>
+      </c>
       <c r="B133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3568,6 +3670,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="21">
+      <c r="A134">
+        <v>34</v>
+      </c>
       <c r="B134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3582,6 +3687,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="21">
+      <c r="A135">
+        <v>35</v>
+      </c>
       <c r="B135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3596,6 +3704,9 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="21">
+      <c r="A136">
+        <v>36</v>
+      </c>
       <c r="B136" s="5" t="s">
         <v>97</v>
       </c>

--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC20227-358E-4018-99DE-105ECD1605CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23539C8-60A7-4DB7-BFAB-E9A7E8B9D94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,13 +1441,25 @@
   </si>
   <si>
     <t>GEOMETRY</t>
+  </si>
+  <si>
+    <t>DP/normal</t>
+  </si>
+  <si>
+    <t>YEs</t>
+  </si>
+  <si>
+    <t>Bahut tough / 2d rabin carp</t>
+  </si>
+  <si>
+    <t>Might not work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1516,6 +1528,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1544,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,6 +1594,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1886,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3289,27 +3321,27 @@
         <v>108</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="21">
-      <c r="A112">
+    <row r="112" spans="1:5" s="12" customFormat="1" ht="21">
+      <c r="A112" s="12">
         <v>12</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>4</v>
+      <c r="D112" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="21">
@@ -3340,7 +3372,7 @@
         <v>111</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>4</v>
@@ -3357,7 +3389,7 @@
         <v>112</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>4</v>
@@ -3374,7 +3406,7 @@
         <v>113</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>4</v>
@@ -3391,7 +3423,7 @@
         <v>114</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>4</v>
@@ -3408,10 +3440,10 @@
         <v>115</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>4</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="21">
@@ -3425,7 +3457,7 @@
         <v>116</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>4</v>
@@ -3445,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="21">

--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23539C8-60A7-4DB7-BFAB-E9A7E8B9D94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B9A443-F759-4813-8C96-B9C6E04EDC21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5890,7 +5890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="21">
+    <row r="289" spans="1:5" ht="21">
       <c r="B289" s="5" t="s">
         <v>265</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="21">
+    <row r="290" spans="1:5" ht="21">
       <c r="B290" s="5" t="s">
         <v>265</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="21">
+    <row r="291" spans="1:5" ht="21">
       <c r="B291" s="5" t="s">
         <v>265</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="21">
+    <row r="292" spans="1:5" ht="21">
       <c r="B292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="21">
+    <row r="293" spans="1:5" ht="21">
       <c r="B293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5960,17 +5960,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="21">
+    <row r="294" spans="1:5" ht="21">
       <c r="C294" s="7"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="2:5" ht="21">
+    <row r="295" spans="1:5" ht="21">
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="2:5" ht="21">
+    <row r="296" spans="1:5" ht="21">
+      <c r="A296">
+        <v>1</v>
+      </c>
       <c r="B296" s="5" t="s">
         <v>285</v>
       </c>
@@ -5978,13 +5981,16 @@
         <v>286</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="21">
+    <row r="297" spans="1:5" ht="21">
+      <c r="A297">
+        <v>2</v>
+      </c>
       <c r="B297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5998,7 +6004,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="21">
+    <row r="298" spans="1:5" ht="21">
+      <c r="A298">
+        <v>3</v>
+      </c>
       <c r="B298" s="5" t="s">
         <v>285</v>
       </c>
@@ -6006,13 +6015,16 @@
         <v>288</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="21">
+    <row r="299" spans="1:5" ht="21">
+      <c r="A299">
+        <v>4</v>
+      </c>
       <c r="B299" s="5" t="s">
         <v>285</v>
       </c>
@@ -6026,7 +6038,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="21">
+    <row r="300" spans="1:5" ht="21">
+      <c r="A300">
+        <v>5</v>
+      </c>
       <c r="B300" s="5" t="s">
         <v>285</v>
       </c>
@@ -6040,7 +6055,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="21">
+    <row r="301" spans="1:5" ht="21">
+      <c r="A301">
+        <v>6</v>
+      </c>
       <c r="B301" s="5" t="s">
         <v>285</v>
       </c>
@@ -6054,7 +6072,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="21">
+    <row r="302" spans="1:5" ht="21">
+      <c r="A302">
+        <v>7</v>
+      </c>
       <c r="B302" s="5" t="s">
         <v>285</v>
       </c>
@@ -6068,7 +6089,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="21">
+    <row r="303" spans="1:5" ht="21">
+      <c r="A303">
+        <v>8</v>
+      </c>
       <c r="B303" s="5" t="s">
         <v>285</v>
       </c>
@@ -6082,7 +6106,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="21">
+    <row r="304" spans="1:5" ht="21">
+      <c r="A304">
+        <v>9</v>
+      </c>
       <c r="B304" s="5" t="s">
         <v>285</v>
       </c>
@@ -6096,7 +6123,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="21">
+    <row r="305" spans="1:5" ht="21">
+      <c r="A305">
+        <v>10</v>
+      </c>
       <c r="B305" s="5" t="s">
         <v>285</v>
       </c>
@@ -6110,7 +6140,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="21">
+    <row r="306" spans="1:5" ht="21">
+      <c r="A306">
+        <v>11</v>
+      </c>
       <c r="B306" s="5" t="s">
         <v>285</v>
       </c>
@@ -6124,7 +6157,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="21">
+    <row r="307" spans="1:5" ht="21">
+      <c r="A307">
+        <v>12</v>
+      </c>
       <c r="B307" s="5" t="s">
         <v>285</v>
       </c>
@@ -6138,7 +6174,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="21">
+    <row r="308" spans="1:5" ht="21">
+      <c r="A308">
+        <v>13</v>
+      </c>
       <c r="B308" s="5" t="s">
         <v>285</v>
       </c>
@@ -6152,7 +6191,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="21">
+    <row r="309" spans="1:5" ht="21">
+      <c r="A309">
+        <v>14</v>
+      </c>
       <c r="B309" s="5" t="s">
         <v>285</v>
       </c>
@@ -6166,7 +6208,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="21">
+    <row r="310" spans="1:5" ht="21">
+      <c r="A310">
+        <v>15</v>
+      </c>
       <c r="B310" s="5" t="s">
         <v>285</v>
       </c>
@@ -6180,7 +6225,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="21">
+    <row r="311" spans="1:5" ht="21">
+      <c r="A311">
+        <v>16</v>
+      </c>
       <c r="B311" s="5" t="s">
         <v>285</v>
       </c>
@@ -6194,7 +6242,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="21">
+    <row r="312" spans="1:5" ht="21">
+      <c r="A312">
+        <v>17</v>
+      </c>
       <c r="B312" s="5" t="s">
         <v>285</v>
       </c>
@@ -6208,7 +6259,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="21">
+    <row r="313" spans="1:5" ht="21">
+      <c r="A313">
+        <v>18</v>
+      </c>
       <c r="B313" s="5" t="s">
         <v>285</v>
       </c>
@@ -6222,7 +6276,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="21">
+    <row r="314" spans="1:5" ht="21">
+      <c r="A314">
+        <v>19</v>
+      </c>
       <c r="B314" s="5" t="s">
         <v>285</v>
       </c>
@@ -6236,7 +6293,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="21">
+    <row r="315" spans="1:5" ht="21">
+      <c r="A315">
+        <v>20</v>
+      </c>
       <c r="B315" s="5" t="s">
         <v>285</v>
       </c>
@@ -6250,7 +6310,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="21">
+    <row r="316" spans="1:5" ht="21">
+      <c r="A316">
+        <v>21</v>
+      </c>
       <c r="B316" s="5" t="s">
         <v>285</v>
       </c>
@@ -6264,7 +6327,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="21">
+    <row r="317" spans="1:5" ht="21">
+      <c r="A317">
+        <v>22</v>
+      </c>
       <c r="B317" s="5" t="s">
         <v>285</v>
       </c>
@@ -6278,7 +6344,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="21">
+    <row r="318" spans="1:5" ht="21">
+      <c r="A318">
+        <v>23</v>
+      </c>
       <c r="B318" s="5" t="s">
         <v>285</v>
       </c>
@@ -6292,7 +6361,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:5" ht="21">
+    <row r="319" spans="1:5" ht="21">
+      <c r="A319">
+        <v>24</v>
+      </c>
       <c r="B319" s="5" t="s">
         <v>285</v>
       </c>
@@ -6306,7 +6378,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:5" ht="21">
+    <row r="320" spans="1:5" ht="21">
+      <c r="A320">
+        <v>25</v>
+      </c>
       <c r="B320" s="5" t="s">
         <v>285</v>
       </c>
@@ -6320,7 +6395,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="21">
+    <row r="321" spans="1:5" ht="21">
+      <c r="A321">
+        <v>26</v>
+      </c>
       <c r="B321" s="5" t="s">
         <v>285</v>
       </c>
@@ -6334,7 +6412,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="21">
+    <row r="322" spans="1:5" ht="21">
+      <c r="A322">
+        <v>27</v>
+      </c>
       <c r="B322" s="5" t="s">
         <v>285</v>
       </c>
@@ -6348,7 +6429,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="21">
+    <row r="323" spans="1:5" ht="21">
+      <c r="A323">
+        <v>28</v>
+      </c>
       <c r="B323" s="5" t="s">
         <v>285</v>
       </c>
@@ -6362,7 +6446,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="21">
+    <row r="324" spans="1:5" ht="21">
+      <c r="A324">
+        <v>29</v>
+      </c>
       <c r="B324" s="5" t="s">
         <v>285</v>
       </c>
@@ -6376,7 +6463,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="21">
+    <row r="325" spans="1:5" ht="21">
+      <c r="A325">
+        <v>30</v>
+      </c>
       <c r="B325" s="5" t="s">
         <v>285</v>
       </c>
@@ -6390,7 +6480,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="21">
+    <row r="326" spans="1:5" ht="21">
+      <c r="A326">
+        <v>31</v>
+      </c>
       <c r="B326" s="5" t="s">
         <v>285</v>
       </c>
@@ -6404,7 +6497,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="21">
+    <row r="327" spans="1:5" ht="21">
+      <c r="A327">
+        <v>32</v>
+      </c>
       <c r="B327" s="5" t="s">
         <v>285</v>
       </c>
@@ -6418,7 +6514,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="21">
+    <row r="328" spans="1:5" ht="21">
+      <c r="A328">
+        <v>33</v>
+      </c>
       <c r="B328" s="5" t="s">
         <v>285</v>
       </c>
@@ -6432,7 +6531,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="21">
+    <row r="329" spans="1:5" ht="21">
+      <c r="A329">
+        <v>34</v>
+      </c>
       <c r="B329" s="5" t="s">
         <v>285</v>
       </c>
@@ -6446,7 +6548,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="21">
+    <row r="330" spans="1:5" ht="21">
+      <c r="A330">
+        <v>35</v>
+      </c>
       <c r="B330" s="5" t="s">
         <v>285</v>
       </c>
@@ -6460,7 +6565,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="21">
+    <row r="331" spans="1:5" ht="21">
+      <c r="A331">
+        <v>36</v>
+      </c>
       <c r="B331" s="5" t="s">
         <v>285</v>
       </c>
@@ -6474,7 +6582,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="21">
+    <row r="332" spans="1:5" ht="21">
+      <c r="A332">
+        <v>37</v>
+      </c>
       <c r="B332" s="5" t="s">
         <v>285</v>
       </c>
@@ -6488,7 +6599,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="21">
+    <row r="333" spans="1:5" ht="21">
+      <c r="A333">
+        <v>38</v>
+      </c>
       <c r="B333" s="5" t="s">
         <v>285</v>
       </c>
@@ -6502,17 +6616,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="21">
+    <row r="334" spans="1:5" ht="21">
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="2:5" ht="21">
+    <row r="335" spans="1:5" ht="21">
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="2:5" ht="21">
+    <row r="336" spans="1:5" ht="21">
+      <c r="A336">
+        <v>1</v>
+      </c>
       <c r="B336" s="8" t="s">
         <v>324</v>
       </c>
@@ -6526,7 +6643,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="21">
+    <row r="337" spans="1:5" ht="21">
+      <c r="A337">
+        <v>2</v>
+      </c>
       <c r="B337" s="8" t="s">
         <v>324</v>
       </c>
@@ -6540,7 +6660,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="2:5" ht="21">
+    <row r="338" spans="1:5" ht="21">
+      <c r="A338">
+        <v>3</v>
+      </c>
       <c r="B338" s="8" t="s">
         <v>324</v>
       </c>
@@ -6554,7 +6677,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="2:5" ht="21">
+    <row r="339" spans="1:5" ht="21">
+      <c r="A339">
+        <v>4</v>
+      </c>
       <c r="B339" s="8" t="s">
         <v>324</v>
       </c>
@@ -6568,7 +6694,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="2:5" ht="21">
+    <row r="340" spans="1:5" ht="21">
+      <c r="A340">
+        <v>5</v>
+      </c>
       <c r="B340" s="8" t="s">
         <v>324</v>
       </c>
@@ -6582,7 +6711,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:5" ht="21">
+    <row r="341" spans="1:5" ht="21">
+      <c r="A341">
+        <v>6</v>
+      </c>
       <c r="B341" s="8" t="s">
         <v>324</v>
       </c>
@@ -6596,7 +6728,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="2:5" ht="21">
+    <row r="342" spans="1:5" ht="21">
+      <c r="A342">
+        <v>7</v>
+      </c>
       <c r="B342" s="8" t="s">
         <v>324</v>
       </c>
@@ -6610,7 +6745,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="2:5" ht="21">
+    <row r="343" spans="1:5" ht="21">
+      <c r="A343">
+        <v>8</v>
+      </c>
       <c r="B343" s="8" t="s">
         <v>324</v>
       </c>
@@ -6624,7 +6762,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="21">
+    <row r="344" spans="1:5" ht="21">
+      <c r="A344">
+        <v>9</v>
+      </c>
       <c r="B344" s="8" t="s">
         <v>324</v>
       </c>
@@ -6638,7 +6779,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:5" ht="21">
+    <row r="345" spans="1:5" ht="21">
+      <c r="A345">
+        <v>10</v>
+      </c>
       <c r="B345" s="8" t="s">
         <v>324</v>
       </c>
@@ -6652,7 +6796,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:5" ht="21">
+    <row r="346" spans="1:5" ht="21">
+      <c r="A346">
+        <v>11</v>
+      </c>
       <c r="B346" s="8" t="s">
         <v>324</v>
       </c>
@@ -6666,7 +6813,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="2:5" ht="21">
+    <row r="347" spans="1:5" ht="21">
+      <c r="A347">
+        <v>12</v>
+      </c>
       <c r="B347" s="8" t="s">
         <v>324</v>
       </c>
@@ -6680,7 +6830,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="2:5" ht="21">
+    <row r="348" spans="1:5" ht="21">
+      <c r="A348">
+        <v>13</v>
+      </c>
       <c r="B348" s="8" t="s">
         <v>324</v>
       </c>
@@ -6694,7 +6847,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="21">
+    <row r="349" spans="1:5" ht="21">
+      <c r="A349">
+        <v>14</v>
+      </c>
       <c r="B349" s="8" t="s">
         <v>324</v>
       </c>
@@ -6708,7 +6864,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="21">
+    <row r="350" spans="1:5" ht="21">
+      <c r="A350">
+        <v>15</v>
+      </c>
       <c r="B350" s="8" t="s">
         <v>324</v>
       </c>
@@ -6722,7 +6881,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="21">
+    <row r="351" spans="1:5" ht="21">
+      <c r="A351">
+        <v>16</v>
+      </c>
       <c r="B351" s="8" t="s">
         <v>324</v>
       </c>
@@ -6736,7 +6898,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="21">
+    <row r="352" spans="1:5" ht="21">
+      <c r="A352">
+        <v>17</v>
+      </c>
       <c r="B352" s="8" t="s">
         <v>324</v>
       </c>
@@ -6750,7 +6915,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="21">
+    <row r="353" spans="1:5" ht="21">
+      <c r="A353">
+        <v>18</v>
+      </c>
       <c r="B353" s="8" t="s">
         <v>324</v>
       </c>
@@ -6764,17 +6932,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="21">
+    <row r="354" spans="1:5" ht="21">
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="2:5" ht="21">
+    <row r="355" spans="1:5" ht="21">
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="2:5" ht="21">
+    <row r="356" spans="1:5" ht="21">
       <c r="B356" s="8" t="s">
         <v>343</v>
       </c>
@@ -6788,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="21">
+    <row r="357" spans="1:5" ht="21">
       <c r="B357" s="8" t="s">
         <v>343</v>
       </c>
@@ -6802,7 +6970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="21">
+    <row r="358" spans="1:5" ht="21">
       <c r="B358" s="8" t="s">
         <v>343</v>
       </c>
@@ -6816,7 +6984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="21">
+    <row r="359" spans="1:5" ht="21">
       <c r="B359" s="8" t="s">
         <v>343</v>
       </c>
@@ -6830,7 +6998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="21">
+    <row r="360" spans="1:5" ht="21">
       <c r="B360" s="8" t="s">
         <v>343</v>
       </c>
@@ -6844,7 +7012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="21">
+    <row r="361" spans="1:5" ht="21">
       <c r="B361" s="8" t="s">
         <v>343</v>
       </c>
@@ -6858,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="21">
+    <row r="362" spans="1:5" ht="21">
       <c r="B362" s="8" t="s">
         <v>343</v>
       </c>
@@ -6872,7 +7040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="21">
+    <row r="363" spans="1:5" ht="21">
       <c r="B363" s="8" t="s">
         <v>343</v>
       </c>
@@ -6886,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="21">
+    <row r="364" spans="1:5" ht="21">
       <c r="B364" s="8" t="s">
         <v>343</v>
       </c>
@@ -6900,7 +7068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="21">
+    <row r="365" spans="1:5" ht="21">
       <c r="B365" s="8" t="s">
         <v>343</v>
       </c>
@@ -6914,7 +7082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="21">
+    <row r="366" spans="1:5" ht="21">
       <c r="B366" s="8" t="s">
         <v>343</v>
       </c>
@@ -6928,7 +7096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="21">
+    <row r="367" spans="1:5" ht="21">
       <c r="B367" s="8" t="s">
         <v>343</v>
       </c>
@@ -6942,7 +7110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="21">
+    <row r="368" spans="1:5" ht="21">
       <c r="B368" s="8" t="s">
         <v>343</v>
       </c>

--- a/FINAL450 (1).xlsx
+++ b/FINAL450 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\New folder\DCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svman\Desktop\SDE\1. DCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B9A443-F759-4813-8C96-B9C6E04EDC21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040393C2-B457-4F83-BADB-C6300ABA6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,18 @@
   </si>
   <si>
     <t>Might not work</t>
+  </si>
+  <si>
+    <t>TOUGH</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1552,6 +1564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,6 +1617,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1918,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4374,7 +4398,10 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="2:5" ht="21">
+    <row r="177" spans="1:5" ht="21">
+      <c r="A177">
+        <v>1</v>
+      </c>
       <c r="B177" s="5" t="s">
         <v>171</v>
       </c>
@@ -4382,13 +4409,16 @@
         <v>172</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="21">
+    <row r="178" spans="1:5" ht="21">
+      <c r="A178">
+        <v>2</v>
+      </c>
       <c r="B178" s="5" t="s">
         <v>171</v>
       </c>
@@ -4396,13 +4426,16 @@
         <v>173</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="21">
+    <row r="179" spans="1:5" ht="21">
+      <c r="A179">
+        <v>3</v>
+      </c>
       <c r="B179" s="5" t="s">
         <v>171</v>
       </c>
@@ -4410,13 +4443,16 @@
         <v>174</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="21">
+    <row r="180" spans="1:5" ht="21">
+      <c r="A180">
+        <v>4</v>
+      </c>
       <c r="B180" s="5" t="s">
         <v>171</v>
       </c>
@@ -4424,13 +4460,16 @@
         <v>175</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="21">
+    <row r="181" spans="1:5" ht="21">
+      <c r="A181">
+        <v>5</v>
+      </c>
       <c r="B181" s="5" t="s">
         <v>171</v>
       </c>
@@ -4438,13 +4477,16 @@
         <v>176</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="21">
+    <row r="182" spans="1:5" ht="21">
+      <c r="A182">
+        <v>6</v>
+      </c>
       <c r="B182" s="5" t="s">
         <v>171</v>
       </c>
@@ -4452,13 +4494,16 @@
         <v>177</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="21">
+    <row r="183" spans="1:5" ht="21">
+      <c r="A183">
+        <v>7</v>
+      </c>
       <c r="B183" s="5" t="s">
         <v>171</v>
       </c>
@@ -4466,13 +4511,16 @@
         <v>178</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="21">
+    <row r="184" spans="1:5" ht="21">
+      <c r="A184">
+        <v>8</v>
+      </c>
       <c r="B184" s="5" t="s">
         <v>171</v>
       </c>
@@ -4480,13 +4528,16 @@
         <v>179</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="21">
+    <row r="185" spans="1:5" ht="21">
+      <c r="A185">
+        <v>9</v>
+      </c>
       <c r="B185" s="5" t="s">
         <v>171</v>
       </c>
@@ -4494,13 +4545,16 @@
         <v>180</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="21">
+    <row r="186" spans="1:5" ht="21">
+      <c r="A186">
+        <v>10</v>
+      </c>
       <c r="B186" s="5" t="s">
         <v>171</v>
       </c>
@@ -4508,13 +4562,16 @@
         <v>181</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="21">
+    <row r="187" spans="1:5" ht="21">
+      <c r="A187">
+        <v>11</v>
+      </c>
       <c r="B187" s="5" t="s">
         <v>171</v>
       </c>
@@ -4522,13 +4579,16 @@
         <v>182</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="21">
+    <row r="188" spans="1:5" ht="21">
+      <c r="A188">
+        <v>12</v>
+      </c>
       <c r="B188" s="5" t="s">
         <v>171</v>
       </c>
@@ -4536,13 +4596,16 @@
         <v>183</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="21">
+    <row r="189" spans="1:5" ht="21">
+      <c r="A189">
+        <v>13</v>
+      </c>
       <c r="B189" s="5" t="s">
         <v>171</v>
       </c>
@@ -4550,13 +4613,16 @@
         <v>184</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="21">
+    <row r="190" spans="1:5" ht="21">
+      <c r="A190">
+        <v>14</v>
+      </c>
       <c r="B190" s="5" t="s">
         <v>171</v>
       </c>
@@ -4564,13 +4630,16 @@
         <v>185</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="21">
+      <c r="A191">
+        <v>15</v>
+      </c>
       <c r="B191" s="5" t="s">
         <v>171</v>
       </c>
@@ -4578,13 +4647,16 @@
         <v>186</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="21">
+      <c r="A192">
+        <v>16</v>
+      </c>
       <c r="B192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4592,13 +4664,16 @@
         <v>187</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="21">
+    <row r="193" spans="1:5" ht="21">
+      <c r="A193">
+        <v>17</v>
+      </c>
       <c r="B193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4606,13 +4681,16 @@
         <v>188</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="21">
+    <row r="194" spans="1:5" ht="21">
+      <c r="A194">
+        <v>18</v>
+      </c>
       <c r="B194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4620,13 +4698,16 @@
         <v>189</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="21">
+      <c r="A195">
+        <v>19</v>
+      </c>
       <c r="B195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4634,13 +4715,16 @@
         <v>190</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="21">
+      <c r="A196">
+        <v>20</v>
+      </c>
       <c r="B196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4648,13 +4732,16 @@
         <v>191</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="21">
+    <row r="197" spans="1:5" ht="21">
+      <c r="A197">
+        <v>21</v>
+      </c>
       <c r="B197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4662,13 +4749,16 @@
         <v>192</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="21">
+    <row r="198" spans="1:5" ht="21">
+      <c r="A198">
+        <v>22</v>
+      </c>
       <c r="B198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4676,13 +4766,16 @@
         <v>193</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="21">
+      <c r="A199">
+        <v>23</v>
+      </c>
       <c r="B199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4690,13 +4783,16 @@
         <v>194</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="21">
+    <row r="200" spans="1:5" ht="21">
+      <c r="A200">
+        <v>24</v>
+      </c>
       <c r="B200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4704,13 +4800,16 @@
         <v>195</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" ht="21">
+        <v>465</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="21">
+      <c r="A201">
+        <v>25</v>
+      </c>
       <c r="B201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4718,13 +4817,16 @@
         <v>196</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="21">
+    <row r="202" spans="1:5" ht="21">
+      <c r="A202">
+        <v>26</v>
+      </c>
       <c r="B202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4738,7 +4840,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="21">
+    <row r="203" spans="1:5" ht="21">
+      <c r="A203">
+        <v>27</v>
+      </c>
       <c r="B203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4752,7 +4857,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="21">
+    <row r="204" spans="1:5" ht="21">
+      <c r="A204">
+        <v>28</v>
+      </c>
       <c r="B204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4766,7 +4874,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="21">
+    <row r="205" spans="1:5" ht="21">
+      <c r="A205">
+        <v>29</v>
+      </c>
       <c r="B205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4780,7 +4891,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="21">
+    <row r="206" spans="1:5" ht="21">
+      <c r="A206">
+        <v>30</v>
+      </c>
       <c r="B206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4794,7 +4908,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="21">
+    <row r="207" spans="1:5" ht="21">
+      <c r="A207">
+        <v>31</v>
+      </c>
       <c r="B207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4808,7 +4925,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="21">
+    <row r="208" spans="1:5" ht="21">
+      <c r="A208">
+        <v>32</v>
+      </c>
       <c r="B208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4822,7 +4942,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="21">
+    <row r="209" spans="1:5" ht="21">
+      <c r="A209">
+        <v>33</v>
+      </c>
       <c r="B209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4836,7 +4959,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="21">
+    <row r="210" spans="1:5" ht="21">
+      <c r="A210">
+        <v>34</v>
+      </c>
       <c r="B210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4850,7 +4976,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="21">
+    <row r="211" spans="1:5" ht="21">
+      <c r="A211">
+        <v>35</v>
+      </c>
       <c r="B211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4864,19 +4993,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="21">
+    <row r="212" spans="1:5" ht="21">
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="2:5" ht="21">
+    <row r="213" spans="1:5" ht="21">
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="2:5" ht="21">
+    <row r="214" spans="1:5" ht="21">
       <c r="B214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4884,13 +5013,13 @@
         <v>208</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="21">
+    <row r="215" spans="1:5" ht="21">
       <c r="B215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4898,13 +5027,13 @@
         <v>209</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="21">
+    <row r="216" spans="1:5" ht="21">
       <c r="B216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4912,13 +5041,13 @@
         <v>210</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="21">
+    <row r="217" spans="1:5" ht="21">
       <c r="B217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4932,7 +5061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="21">
+    <row r="218" spans="1:5" ht="21">
       <c r="B218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4940,13 +5069,13 @@
         <v>212</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="21">
+    <row r="219" spans="1:5" ht="21">
       <c r="B219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4960,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="21">
+    <row r="220" spans="1:5" ht="21">
       <c r="B220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4968,13 +5097,13 @@
         <v>214</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="21">
+    <row r="221" spans="1:5" ht="21">
       <c r="B221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4982,13 +5111,13 @@
         <v>215</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="21">
+    <row r="222" spans="1:5" ht="21">
       <c r="B222" s="5" t="s">
         <v>207</v>
       </c>
@@ -5002,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="21">
+    <row r="223" spans="1:5" ht="21">
       <c r="B223" s="5" t="s">
         <v>207</v>
       </c>
@@ -5016,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="21">
+    <row r="224" spans="1:5" ht="21">
       <c r="B224" s="5" t="s">
         <v>207</v>
       </c>
@@ -5024,10 +5153,10 @@
         <v>218</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="21">
@@ -5052,7 +5181,7 @@
         <v>220</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>4</v>
@@ -5066,7 +5195,7 @@
         <v>221</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>4</v>
@@ -5094,7 +5223,7 @@
         <v>223</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>4</v>
@@ -6032,7 +6161,7 @@
         <v>289</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>4</v>
@@ -6049,7 +6178,7 @@
         <v>290</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>4</v>
@@ -6066,7 +6195,7 @@
         <v>291</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>4</v>
@@ -6083,7 +6212,7 @@
         <v>292</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>4</v>
@@ -6117,7 +6246,7 @@
         <v>294</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>4</v>
@@ -6137,7 +6266,7 @@
         <v>4</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="21">
@@ -6219,7 +6348,7 @@
         <v>300</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>4</v>
@@ -6236,7 +6365,7 @@
         <v>301</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>4</v>
